--- a/biology/Zoologie/Changthangi/Changthangi.xlsx
+++ b/biology/Zoologie/Changthangi/Changthangi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Changthangi, Changra ou chèvre Pashmina, est une race de chèvre du type cachemire.
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chèvre des plateaux du Tibet, du Népal, d'une partie de la Birmanie et de la région voisine du Ladakh au Jammu-et-Cachemire en Inde, elle est élevée pour la laine de cachemire ultra-fine, connue sous le nom de pashmînâ une fois tissée. Elle a aussi été élevée pour sa viande par le passé.
 Cette lignée de la Capra hircus du type cachemire produit un sous-poil épais et chaud qui est la source de la laine pashmînâ, le plus fin des cachemires, dont les fibres mesurent entre 12 et 15 μm d'épaisseur. Cette chèvre, généralement domestiquée, est élevée par les communautés nomades Changpas de la région du Changtang dans le Grand Ladakh.
@@ -522,9 +536,9 @@
 			Chèvres broutant dans la région du Pangong Tso
 			Femme de la tribu nomade des Changpas et chèvre pashmina.
 			Troupeau de Changthangi traversant la ville de Manali à 450 km de Leh.
-En fournissant la laine des célèbres châles pashmînâ exportés dans le monde entier, la Changthangi a participé à la revitalisation de l'économie des régions touchées par la pauvreté de Changtang, Leh et Ladakh. Selon une étude publiée en 2011, le district de Leh produit 30 tonnes de fibre pashmina récoltées sur 150 000 Changthangi. La couleur de la robe varie entre le blanc et le brun clair. Presque tout le corps est recouvert de longs poils et de pashmina. Le poids moyen à la naissance est de 2,11 kg pour les mâles et 2,06 kg pour les femelles. Le poids à 300 jours est respectivement de 20 et 18,7 kg. Le rendement des boucs, des chèvres et des antenais mâles et femelles est respectivement de 402, 248, 255 et 280 g. La longueur de la fibre est de 4,25 cm pour les mâles et 4,02 cm pour les femelles, le diamètre étant respectivement de 12,9 et 13 μ[1].
+En fournissant la laine des célèbres châles pashmînâ exportés dans le monde entier, la Changthangi a participé à la revitalisation de l'économie des régions touchées par la pauvreté de Changtang, Leh et Ladakh. Selon une étude publiée en 2011, le district de Leh produit 30 tonnes de fibre pashmina récoltées sur 150 000 Changthangi. La couleur de la robe varie entre le blanc et le brun clair. Presque tout le corps est recouvert de longs poils et de pashmina. Le poids moyen à la naissance est de 2,11 kg pour les mâles et 2,06 kg pour les femelles. Le poids à 300 jours est respectivement de 20 et 18,7 kg. Le rendement des boucs, des chèvres et des antenais mâles et femelles est respectivement de 402, 248, 255 et 280 g. La longueur de la fibre est de 4,25 cm pour les mâles et 4,02 cm pour les femelles, le diamètre étant respectivement de 12,9 et 13 μ.
 	Traitement de la laine à Leh
-Noori, la première chèvre Pashmina clonée au monde, est née le 9 mars 2012 à la Faculté des Sciences vétérinaires et de l'élevage de l'université des Sciences et technologies agricoles du Cachemire Sher-e-Kashmir (SKUAST) située à Shuhama, à 25 km à l'est de Srinagar[2],[3],.
+Noori, la première chèvre Pashmina clonée au monde, est née le 9 mars 2012 à la Faculté des Sciences vétérinaires et de l'élevage de l'université des Sciences et technologies agricoles du Cachemire Sher-e-Kashmir (SKUAST) située à Shuhama, à 25 km à l'est de Srinagar.
 </t>
         </is>
       </c>
